--- a/src/test/resources/TestCases/TestCases.xlsx
+++ b/src/test/resources/TestCases/TestCases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Scripts.ListBox.RemoveAll</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC_Verify_VerifyMessage_Chrome</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,7 +519,7 @@
   <dimension ref="A1:XFC195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +715,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -724,7 +740,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -742,6 +758,27 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
@@ -1448,20 +1485,23 @@
       <c r="I195" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:B1048576 B2:B4">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  <conditionalFormatting sqref="B7:B8 B2:B4 B10:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 C2:C9 F9">
       <formula1>$XFC$1:$XFC$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H153 I3:I195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I195 H2:H153">
       <formula1>$W$2:$W$3</formula1>
     </dataValidation>
   </dataValidations>
